--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2494490.722233619</v>
+        <v>-2497246.064312668</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>172.4535735303299</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>189.9591769091472</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -820,10 +820,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>118.7863058903123</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>280.3918585232178</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>163.7870630045454</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.52502338186935</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>39.77426228591311</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>85.21746415073623</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>114.5280437482857</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>67.75987840060694</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>345.6009606549717</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>184.8877261468504</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>2.589177316664743</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>106.2734156401341</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576176</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>104.7777418077859</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583908</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>106.129180378769</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611381</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.594095449514112</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>100.9025715636462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>41.33703994143007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>158.4589496224476</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,7 +2485,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308927</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
         <v>141.2394908002291</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2770,7 +2770,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317892</v>
       </c>
       <c r="W28" t="n">
         <v>262.2383508445513</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652576</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1264.93819105164</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="C2" t="n">
-        <v>895.975674111228</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="D2" t="n">
-        <v>537.7099755044776</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="E2" t="n">
-        <v>363.5144466859625</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="F2" t="n">
-        <v>363.5144466859625</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073759</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>492.6555577582158</v>
+        <v>776.0043429178222</v>
       </c>
       <c r="L2" t="n">
-        <v>730.2783389764071</v>
+        <v>1026.69985868625</v>
       </c>
       <c r="M2" t="n">
-        <v>1371.301548596301</v>
+        <v>1667.723068306144</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216195</v>
+        <v>1973.198174541727</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532829</v>
+        <v>2248.31439385836</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2448.618721147462</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>2124.334033584003</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115761</v>
+        <v>1793.271146240433</v>
       </c>
       <c r="W2" t="n">
-        <v>1651.538031115761</v>
+        <v>1440.502490970319</v>
       </c>
       <c r="X2" t="n">
-        <v>1651.538031115761</v>
+        <v>1067.036732709239</v>
       </c>
       <c r="Y2" t="n">
-        <v>1651.538031115761</v>
+        <v>875.1587762353527</v>
       </c>
     </row>
     <row r="3">
@@ -4395,49 +4395,49 @@
         <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093829</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369552</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072339</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600644</v>
+        <v>794.7800573025152</v>
       </c>
       <c r="M3" t="n">
-        <v>915.0684808447945</v>
+        <v>1058.719588798001</v>
       </c>
       <c r="N3" t="n">
-        <v>1200.402351278127</v>
+        <v>1515.680492231667</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2144.409140067087</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
         <v>2023.106809259863</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.8526776630624</v>
+        <v>488.6352993990918</v>
       </c>
       <c r="C4" t="n">
-        <v>201.9164947351555</v>
+        <v>319.6991164711849</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>1027.978209842719</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="V4" t="n">
-        <v>773.2937216368322</v>
+        <v>1056.517821155231</v>
       </c>
       <c r="W4" t="n">
-        <v>773.2937216368322</v>
+        <v>891.0763433728616</v>
       </c>
       <c r="X4" t="n">
-        <v>773.2937216368322</v>
+        <v>891.0763433728616</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.501142493302</v>
+        <v>670.2837642293315</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1183.403261976894</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="C5" t="n">
-        <v>814.440745036482</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="D5" t="n">
-        <v>456.1750464297314</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>70.38679383148718</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F5" t="n">
         <v>63.44129308228371</v>
@@ -4565,25 +4565,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
         <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083233</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>2296.237515572209</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W5" t="n">
-        <v>1943.468860302095</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="X5" t="n">
-        <v>1570.003102041015</v>
+        <v>946.2936970870408</v>
       </c>
       <c r="Y5" t="n">
-        <v>1570.003102041015</v>
+        <v>860.2154504701355</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682815</v>
+        <v>426.7768722128336</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845962</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802664</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>622.842788120441</v>
+        <v>756.8331878819869</v>
       </c>
       <c r="C7" t="n">
-        <v>453.9066051925341</v>
+        <v>587.89700495408</v>
       </c>
       <c r="D7" t="n">
-        <v>453.9066051925341</v>
+        <v>587.89700495408</v>
       </c>
       <c r="E7" t="n">
-        <v>305.993511610141</v>
+        <v>587.89700495408</v>
       </c>
       <c r="F7" t="n">
-        <v>305.993511610141</v>
+        <v>441.0070574561696</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>273.030868718059</v>
       </c>
       <c r="H7" t="n">
         <v>157.3459760430229</v>
@@ -4723,52 +4723,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.9810806808055</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1279.968320300098</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>1279.968320300098</v>
+        <v>938.4816527122266</v>
       </c>
       <c r="V7" t="n">
-        <v>1025.283832094211</v>
+        <v>938.4816527122266</v>
       </c>
       <c r="W7" t="n">
-        <v>1025.283832094211</v>
+        <v>938.4816527122266</v>
       </c>
       <c r="X7" t="n">
-        <v>1025.283832094211</v>
+        <v>938.4816527122266</v>
       </c>
       <c r="Y7" t="n">
-        <v>804.4912529506807</v>
+        <v>938.4816527122266</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.930012102023</v>
+        <v>1698.708841600123</v>
       </c>
       <c r="C8" t="n">
-        <v>797.9674951616109</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="D8" t="n">
-        <v>439.7017965548604</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="E8" t="n">
-        <v>439.7017965548604</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F8" t="n">
-        <v>432.7562958056569</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4835,19 +4835,19 @@
         <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2403.237487204774</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797415</v>
+        <v>2072.174599861203</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527301</v>
+        <v>2072.174599861203</v>
       </c>
       <c r="X8" t="n">
-        <v>1906.161223527301</v>
+        <v>1698.708841600123</v>
       </c>
       <c r="Y8" t="n">
-        <v>1516.021891551489</v>
+        <v>1698.708841600123</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682818</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.007699493406</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M9" t="n">
-        <v>1445.313588985731</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1835.723150311474</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O9" t="n">
-        <v>2170.651831027005</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2420.128558892024</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
         <v>2536.977948259489</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199.7129489052128</v>
+        <v>937.708924356462</v>
       </c>
       <c r="C10" t="n">
-        <v>199.7129489052128</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="D10" t="n">
-        <v>199.7129489052128</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>473.9697003482517</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1644.368339530984</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1447.918673536953</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.927733452886</v>
+        <v>1447.918673536953</v>
       </c>
       <c r="U10" t="n">
-        <v>1032.809956463284</v>
+        <v>1447.918673536953</v>
       </c>
       <c r="V10" t="n">
-        <v>778.1254682573971</v>
+        <v>1447.918673536953</v>
       </c>
       <c r="W10" t="n">
-        <v>488.7082982204365</v>
+        <v>1158.501503499992</v>
       </c>
       <c r="X10" t="n">
-        <v>381.3614137354525</v>
+        <v>1158.501503499992</v>
       </c>
       <c r="Y10" t="n">
-        <v>381.3614137354525</v>
+        <v>937.708924356462</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,13 +5060,13 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951537</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.613315601763</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="C13" t="n">
-        <v>888.6771326738565</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="D13" t="n">
-        <v>738.5604932615207</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="E13" t="n">
-        <v>590.6473996791276</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746432</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.06254548757</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510511</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510511</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510511</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.04391047355</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.054359575533</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.261780432003</v>
+        <v>762.5477693179099</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,58 +5264,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951537</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.95525898292</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>889.0190760550131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>738.9024366426773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854707</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.39630295669</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.60372381316</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5525,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.7243904253733</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253733</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>486.4214942667319</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>814.372855255613</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
         <v>411.2214559580113</v>
@@ -6142,55 +6142,55 @@
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N25" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>1859.536823237711</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
         <v>533.5814564942654</v>
@@ -6418,13 +6418,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6874,19 +6874,19 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,13 +7023,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,13 +7117,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,13 +7327,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,22 +7354,22 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,28 +7418,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7454,7 +7454,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>542.9134462654469</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7786,31 +7786,31 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979287</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7979,16 +7979,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>37.93451847055053</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.20478237397751</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942341</v>
+        <v>348.4370131942355</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659691</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159752</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>119.3631077669121</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>173.3606393942774</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>10.05242792961593</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>220.129715665464</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>148.4266296017855</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>-2.988542810860913e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>209.4767965419319</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>196.2787617469064</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>5.853402214601203</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.103156617964686</v>
+        <v>122.7359353320456</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>40.64330621514532</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>72.11969353038478</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>40.30478226780022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>138.4949402405065</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.6820817884485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-7.551737141186073e-13</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1129581.940106245</v>
+        <v>1129581.940106246</v>
       </c>
     </row>
     <row r="3">
@@ -26314,7 +26314,7 @@
         <v>15883.07632636138</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660709</v>
@@ -26323,10 +26323,10 @@
         <v>20178.66499225016</v>
       </c>
       <c r="F2" t="n">
+        <v>20178.66499225015</v>
+      </c>
+      <c r="G2" t="n">
         <v>20178.66499225016</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
@@ -26341,16 +26341,16 @@
         <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898933</v>
+        <v>172764.3597898952</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.867745751</v>
+        <v>500888.8677457514</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>19427.71799363178</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53783.70994333898</v>
+        <v>53783.70994333935</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531694982</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695013</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695046</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="I4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="J4" t="n">
         <v>14278.33979478853</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478852</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478854</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478859</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478852</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26476,10 +26476,10 @@
         <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1066928.644389366</v>
+        <v>-1067392.941181389</v>
       </c>
       <c r="C6" t="n">
-        <v>-374786.1596300438</v>
+        <v>-374786.1596300456</v>
       </c>
       <c r="D6" t="n">
         <v>-202021.7998401505</v>
       </c>
       <c r="E6" t="n">
-        <v>-588120.213109103</v>
+        <v>-588154.951034539</v>
       </c>
       <c r="F6" t="n">
-        <v>-87231.34536335198</v>
+        <v>-87266.0832887877</v>
       </c>
       <c r="G6" t="n">
-        <v>-87231.34536335203</v>
+        <v>-87266.08328878759</v>
       </c>
       <c r="H6" t="n">
-        <v>-87231.34536335201</v>
+        <v>-87266.08328878772</v>
       </c>
       <c r="I6" t="n">
         <v>-116344.1293957286</v>
@@ -26552,16 +26552,16 @@
         <v>-96916.41140209683</v>
       </c>
       <c r="M6" t="n">
-        <v>-227800.8683063321</v>
+        <v>-227800.8683063322</v>
       </c>
       <c r="N6" t="n">
-        <v>-116344.1293957287</v>
+        <v>-116344.1293957286</v>
       </c>
       <c r="O6" t="n">
-        <v>-96916.41140209688</v>
+        <v>-96916.41140209681</v>
       </c>
       <c r="P6" t="n">
-        <v>-96916.41140209681</v>
+        <v>-96916.41140209683</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
       <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
+        <v>939.7063906498446</v>
+      </c>
+      <c r="D3" t="n">
         <v>939.7063906498445</v>
-      </c>
-      <c r="D3" t="n">
-        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522348</v>
+        <v>189.7254341522369</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.26910969183</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>29.82916712790005</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27591,13 +27591,13 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>284.4198417186263</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>287.9779961842218</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>301.0204745053173</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>32.63301646316128</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>152.9453503128315</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.13288100850883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>66.15570963032482</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>98.51097130387967</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>119.436239748903</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31288,37 +31288,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31382,19 +31382,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31440,25 +31440,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31522,40 +31522,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31789,10 +31789,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145765</v>
+        <v>405.6377363145758</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31923,31 +31923,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532615</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>403.8524967138013</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437245</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511227</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>223.6976288294625</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,10 +33032,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33743,16 +33743,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>744.7005224868051</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.944966752077</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>201.3638235867069</v>
+        <v>487.5747176873202</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315064</v>
+        <v>253.2277937054827</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269027</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>202.327603322326</v>
+        <v>202.3276033223249</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586409</v>
+        <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597328</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517966</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806368</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>385.968695136091</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407399</v>
+        <v>461.5766701350162</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580004</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689365</v>
+        <v>174.0696575289985</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527185</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>474.07902449153</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35027,16 +35027,16 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>348.3642266321726</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,10 +35100,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35112,7 +35112,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057228</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>520.4448157829537</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>542.7797218500101</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225505</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,19 +35337,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312432</v>
+        <v>274.2960242312425</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899094</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754089</v>
@@ -35732,10 +35732,10 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312432</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>272.510784630468</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992801</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O18" t="n">
-        <v>197.8432633066783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>197.8432633066783</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>81.10138438501811</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,10 +36680,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37391,16 +37391,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>613.3588104034718</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
